--- a/pyFHIR_models/my_patients.xlsx
+++ b/pyFHIR_models/my_patients.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/Python/MyBinder/pyFHIR_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D51CBE84-B96D-DD42-AEA1-980446078F97}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34879722-F292-5544-A14A-A0BA6B3C02DA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="16040" xr2:uid="{FD5253B7-04D8-1442-A0CB-FAE4D259D958}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{FD5253B7-04D8-1442-A0CB-FAE4D259D958}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="59">
   <si>
     <t>l_name</t>
   </si>
@@ -136,6 +136,78 @@
   </si>
   <si>
     <t>100 A St</t>
+  </si>
+  <si>
+    <t>Greg</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>100 Elm St</t>
+  </si>
+  <si>
+    <t>100 E St</t>
+  </si>
+  <si>
+    <t>200 Trancas Blvd</t>
+  </si>
+  <si>
+    <t>100 Imola St</t>
+  </si>
+  <si>
+    <t>Harriet</t>
+  </si>
+  <si>
+    <t>Imelda</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Queen</t>
+  </si>
+  <si>
+    <t>St Helena</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>proctology</t>
+  </si>
+  <si>
+    <t>urology</t>
+  </si>
+  <si>
+    <t>dermatology</t>
+  </si>
+  <si>
+    <t>smith</t>
+  </si>
+  <si>
+    <t>jones</t>
+  </si>
+  <si>
+    <t>admit_date</t>
+  </si>
+  <si>
+    <t>discharge_date</t>
+  </si>
+  <si>
+    <t>practitioner</t>
   </si>
 </sst>
 </file>
@@ -143,7 +215,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -174,9 +246,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,19 +564,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E617136-1593-F549-8B96-E485ED23CA26}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="17" max="17" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -543,8 +618,23 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -584,8 +674,25 @@
       <c r="M2">
         <v>94559</v>
       </c>
+      <c r="N2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="2">
+        <f ca="1">TODAY()-1</f>
+        <v>43953</v>
+      </c>
+      <c r="R2" s="2">
+        <f ca="1">TODAY()</f>
+        <v>43954</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -625,8 +732,25 @@
       <c r="M3">
         <v>94558</v>
       </c>
+      <c r="N3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" s="2">
+        <f ca="1">TODAY()-1</f>
+        <v>43953</v>
+      </c>
+      <c r="R3" s="2">
+        <f ca="1">TODAY()</f>
+        <v>43954</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -666,8 +790,25 @@
       <c r="M4">
         <v>94559</v>
       </c>
+      <c r="N4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q4" s="2">
+        <f ca="1">TODAY()-1</f>
+        <v>43953</v>
+      </c>
+      <c r="R4" s="2">
+        <f ca="1">TODAY()+1</f>
+        <v>43955</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -707,8 +848,25 @@
       <c r="M5">
         <v>94558</v>
       </c>
+      <c r="N5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="2">
+        <f ca="1">TODAY()</f>
+        <v>43954</v>
+      </c>
+      <c r="R5" s="2">
+        <f ca="1">TODAY()+1</f>
+        <v>43955</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -748,8 +906,25 @@
       <c r="M6">
         <v>94559</v>
       </c>
+      <c r="N6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" s="2">
+        <f ca="1">TODAY()</f>
+        <v>43954</v>
+      </c>
+      <c r="R6" s="2">
+        <f ca="1">TODAY()+1</f>
+        <v>43955</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -788,6 +963,255 @@
       </c>
       <c r="M7">
         <v>94558</v>
+      </c>
+      <c r="N7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q7" s="2">
+        <f ca="1">TODAY()</f>
+        <v>43954</v>
+      </c>
+      <c r="R7" s="2">
+        <f ca="1">TODAY()+1</f>
+        <v>43955</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>890</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1">
+        <v>30072</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>5555555555</v>
+      </c>
+      <c r="J8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8">
+        <v>94558</v>
+      </c>
+      <c r="N8" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q8" s="2">
+        <f ca="1">TODAY()</f>
+        <v>43954</v>
+      </c>
+      <c r="R8" s="2">
+        <f ca="1">TODAY()+2</f>
+        <v>43956</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>901</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1">
+        <v>37289</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>5555555555</v>
+      </c>
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9">
+        <v>94558</v>
+      </c>
+      <c r="N9" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q9" s="2">
+        <f ca="1">TODAY()+1</f>
+        <v>43955</v>
+      </c>
+      <c r="R9" s="2">
+        <f ca="1">TODAY()+3</f>
+        <v>43957</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>902</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1">
+        <v>21628</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>5555555555</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10">
+        <v>94558</v>
+      </c>
+      <c r="N10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10" t="s">
+        <v>48</v>
+      </c>
+      <c r="P10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q10" s="2">
+        <f ca="1">TODAY()+1</f>
+        <v>43955</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" ref="R10:R11" ca="1" si="0">TODAY()+2</f>
+        <v>43956</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>903</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="1">
+        <v>32363</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>5555555555</v>
+      </c>
+      <c r="J11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11">
+        <v>94558</v>
+      </c>
+      <c r="N11" t="s">
+        <v>55</v>
+      </c>
+      <c r="O11" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q11" s="2">
+        <f ca="1">TODAY()+1</f>
+        <v>43955</v>
+      </c>
+      <c r="R11" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43956</v>
       </c>
     </row>
   </sheetData>

--- a/pyFHIR_models/my_patients.xlsx
+++ b/pyFHIR_models/my_patients.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/Python/MyBinder/pyFHIR_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34879722-F292-5544-A14A-A0BA6B3C02DA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A00CF1-AA07-564F-AF96-853B0A37017E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{FD5253B7-04D8-1442-A0CB-FAE4D259D958}"/>
   </bookViews>
@@ -174,18 +174,12 @@
     <t>White</t>
   </si>
   <si>
-    <t>location</t>
-  </si>
-  <si>
     <t>Queen</t>
   </si>
   <si>
     <t>St Helena</t>
   </si>
   <si>
-    <t>service</t>
-  </si>
-  <si>
     <t>proctology</t>
   </si>
   <si>
@@ -207,7 +201,13 @@
     <t>discharge_date</t>
   </si>
   <si>
-    <t>practitioner</t>
+    <t>Practitioner</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>HealthCareService</t>
   </si>
 </sst>
 </file>
@@ -249,7 +249,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,15 +566,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E617136-1593-F549-8B96-E485ED23CA26}">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="17" max="17" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5" customWidth="1"/>
     <col min="18" max="18" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -619,19 +620,19 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" t="s">
         <v>58</v>
       </c>
-      <c r="O1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" t="s">
-        <v>50</v>
-      </c>
       <c r="Q1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -675,21 +676,21 @@
         <v>94559</v>
       </c>
       <c r="N2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q2" s="2">
         <f ca="1">TODAY()-1</f>
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="R2" s="2">
         <f ca="1">TODAY()</f>
-        <v>43954</v>
+        <v>43955</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -733,21 +734,21 @@
         <v>94558</v>
       </c>
       <c r="N3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="2">
         <f ca="1">TODAY()-1</f>
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="R3" s="2">
         <f ca="1">TODAY()</f>
-        <v>43954</v>
+        <v>43955</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -791,21 +792,21 @@
         <v>94559</v>
       </c>
       <c r="N4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q4" s="2">
         <f ca="1">TODAY()-1</f>
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="R4" s="2">
         <f ca="1">TODAY()+1</f>
-        <v>43955</v>
+        <v>43956</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -849,21 +850,21 @@
         <v>94558</v>
       </c>
       <c r="N5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" t="s">
         <v>49</v>
-      </c>
-      <c r="P5" t="s">
-        <v>51</v>
       </c>
       <c r="Q5" s="2">
         <f ca="1">TODAY()</f>
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="R5" s="2">
         <f ca="1">TODAY()+1</f>
-        <v>43955</v>
+        <v>43956</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -907,21 +908,21 @@
         <v>94559</v>
       </c>
       <c r="N6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q6" s="2">
         <f ca="1">TODAY()</f>
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="R6" s="2">
         <f ca="1">TODAY()+1</f>
-        <v>43955</v>
+        <v>43956</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -965,21 +966,21 @@
         <v>94558</v>
       </c>
       <c r="N7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q7" s="2">
         <f ca="1">TODAY()</f>
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="R7" s="2">
         <f ca="1">TODAY()+1</f>
-        <v>43955</v>
+        <v>43956</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -1023,21 +1024,21 @@
         <v>94558</v>
       </c>
       <c r="N8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="2">
         <f ca="1">TODAY()</f>
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="R8" s="2">
         <f ca="1">TODAY()+2</f>
-        <v>43956</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -1081,21 +1082,21 @@
         <v>94558</v>
       </c>
       <c r="N9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="2">
         <f ca="1">TODAY()+1</f>
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="R9" s="2">
         <f ca="1">TODAY()+3</f>
-        <v>43957</v>
+        <v>43958</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -1139,21 +1140,21 @@
         <v>94558</v>
       </c>
       <c r="N10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="2">
         <f ca="1">TODAY()+1</f>
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" ref="R10:R11" ca="1" si="0">TODAY()+2</f>
-        <v>43956</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -1197,21 +1198,21 @@
         <v>94558</v>
       </c>
       <c r="N11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O11" t="s">
+        <v>48</v>
+      </c>
+      <c r="P11" t="s">
         <v>49</v>
-      </c>
-      <c r="P11" t="s">
-        <v>51</v>
       </c>
       <c r="Q11" s="2">
         <f ca="1">TODAY()+1</f>
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43956</v>
+        <v>43957</v>
       </c>
     </row>
   </sheetData>

--- a/pyFHIR_models/my_patients.xlsx
+++ b/pyFHIR_models/my_patients.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/Python/MyBinder/pyFHIR_models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Python\MyBinder\pyFHIR_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A00CF1-AA07-564F-AF96-853B0A37017E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF943E1-E2D0-41D5-8964-4CBA95F8AE53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{FD5253B7-04D8-1442-A0CB-FAE4D259D958}"/>
+    <workbookView xWindow="9480" yWindow="3030" windowWidth="28800" windowHeight="15030" xr2:uid="{FD5253B7-04D8-1442-A0CB-FAE4D259D958}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="66">
   <si>
     <t>l_name</t>
   </si>
@@ -177,9 +180,6 @@
     <t>Queen</t>
   </si>
   <si>
-    <t>St Helena</t>
-  </si>
-  <si>
     <t>proctology</t>
   </si>
   <si>
@@ -208,6 +208,30 @@
   </si>
   <si>
     <t>HealthCareService</t>
+  </si>
+  <si>
+    <t>attributed-to</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>managing-organization</t>
+  </si>
+  <si>
+    <t>example-organization-2</t>
+  </si>
+  <si>
+    <t>queen</t>
+  </si>
+  <si>
+    <t>st-helena</t>
+  </si>
+  <si>
+    <t>leung</t>
   </si>
 </sst>
 </file>
@@ -564,22 +588,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E617136-1593-F549-8B96-E485ED23CA26}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="16" max="16" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.625" customWidth="1"/>
+    <col min="16" max="16" width="16.125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.5" customWidth="1"/>
-    <col min="18" max="18" width="14.83203125" customWidth="1"/>
+    <col min="18" max="18" width="14.875" customWidth="1"/>
+    <col min="19" max="19" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -620,22 +645,25 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" t="s">
         <v>54</v>
       </c>
-      <c r="R1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -676,24 +704,27 @@
         <v>94559</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="O2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="P2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q2" s="2">
         <f ca="1">TODAY()-1</f>
-        <v>43954</v>
+        <v>44082</v>
       </c>
       <c r="R2" s="2">
         <f ca="1">TODAY()</f>
-        <v>43955</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+        <v>44083</v>
+      </c>
+      <c r="S2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -734,24 +765,27 @@
         <v>94558</v>
       </c>
       <c r="N3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q3" s="2">
         <f ca="1">TODAY()-1</f>
-        <v>43954</v>
+        <v>44082</v>
       </c>
       <c r="R3" s="2">
         <f ca="1">TODAY()</f>
-        <v>43955</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+        <v>44083</v>
+      </c>
+      <c r="S3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -792,24 +826,27 @@
         <v>94559</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="O4" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="P4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="2">
         <f ca="1">TODAY()-1</f>
-        <v>43954</v>
+        <v>44082</v>
       </c>
       <c r="R4" s="2">
         <f ca="1">TODAY()+1</f>
-        <v>43956</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+        <v>44084</v>
+      </c>
+      <c r="S4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -850,24 +887,27 @@
         <v>94558</v>
       </c>
       <c r="N5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" t="s">
         <v>48</v>
-      </c>
-      <c r="P5" t="s">
-        <v>49</v>
       </c>
       <c r="Q5" s="2">
         <f ca="1">TODAY()</f>
-        <v>43955</v>
+        <v>44083</v>
       </c>
       <c r="R5" s="2">
         <f ca="1">TODAY()+1</f>
-        <v>43956</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+        <v>44084</v>
+      </c>
+      <c r="S5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -908,24 +948,27 @@
         <v>94559</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="O6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="P6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q6" s="2">
         <f ca="1">TODAY()</f>
-        <v>43955</v>
+        <v>44083</v>
       </c>
       <c r="R6" s="2">
         <f ca="1">TODAY()+1</f>
-        <v>43956</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+        <v>44084</v>
+      </c>
+      <c r="S6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -966,24 +1009,27 @@
         <v>94558</v>
       </c>
       <c r="N7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O7" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="P7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q7" s="2">
         <f ca="1">TODAY()</f>
-        <v>43955</v>
+        <v>44083</v>
       </c>
       <c r="R7" s="2">
         <f ca="1">TODAY()+1</f>
-        <v>43956</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+        <v>44084</v>
+      </c>
+      <c r="S7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1024,24 +1070,27 @@
         <v>94558</v>
       </c>
       <c r="N8" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="O8" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="P8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="2">
         <f ca="1">TODAY()</f>
-        <v>43955</v>
+        <v>44083</v>
       </c>
       <c r="R8" s="2">
         <f ca="1">TODAY()+2</f>
-        <v>43957</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+        <v>44085</v>
+      </c>
+      <c r="S8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1082,24 +1131,27 @@
         <v>94558</v>
       </c>
       <c r="N9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O9" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="P9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q9" s="2">
         <f ca="1">TODAY()+1</f>
-        <v>43956</v>
+        <v>44084</v>
       </c>
       <c r="R9" s="2">
         <f ca="1">TODAY()+3</f>
-        <v>43958</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+        <v>44086</v>
+      </c>
+      <c r="S9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1140,24 +1192,27 @@
         <v>94558</v>
       </c>
       <c r="N10" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="O10" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="P10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="2">
         <f ca="1">TODAY()+1</f>
-        <v>43956</v>
+        <v>44084</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" ref="R10:R11" ca="1" si="0">TODAY()+2</f>
-        <v>43957</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+        <v>44085</v>
+      </c>
+      <c r="S10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1198,21 +1253,185 @@
         <v>94558</v>
       </c>
       <c r="N11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O11" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" t="s">
         <v>48</v>
-      </c>
-      <c r="P11" t="s">
-        <v>49</v>
       </c>
       <c r="Q11" s="2">
         <f ca="1">TODAY()+1</f>
-        <v>43956</v>
+        <v>44084</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43957</v>
+        <v>44085</v>
+      </c>
+      <c r="S11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E357D525-AED1-4157-B724-3E09D6DB8776}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>23547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>5555555555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>94559</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="2">
+        <f ca="1">TODAY()-1</f>
+        <v>44082</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="2">
+        <f ca="1">TODAY()</f>
+        <v>44083</v>
       </c>
     </row>
   </sheetData>
